--- a/PLO2-2020-7-21.xlsx
+++ b/PLO2-2020-7-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH_Home\Desktop\rok_ocr\ROK_OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4BF3C-0543-428B-A6BB-8DAB7DFA0910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3059D37F-F04F-4773-8F61-F84BD9305F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17820" yWindow="1215" windowWidth="13830" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="2535" windowWidth="13830" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -672,6 +672,10 @@
   </si>
   <si>
     <t>teto1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호9와토9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,13 +1048,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1088,1786 +1096,1800 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>32858679</v>
+        <v>32838586</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>38081138</v>
+        <v>39612097</v>
       </c>
       <c r="D3">
-        <v>1345170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>10434915</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>32886907</v>
+        <v>32858679</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>37782125</v>
+        <v>38081138</v>
       </c>
       <c r="D4">
-        <v>2487123</v>
+        <v>1345170</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>32849136</v>
+        <v>32886907</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>36548079</v>
+        <v>37782125</v>
       </c>
       <c r="D5">
-        <v>2061629</v>
+        <v>2487123</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>32916567</v>
+        <v>32849136</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>34844557</v>
+        <v>36548079</v>
       </c>
       <c r="D6">
-        <v>3359320</v>
+        <v>2061629</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>32888148</v>
+        <v>32916567</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>31844620</v>
+        <v>34844557</v>
       </c>
       <c r="D7">
-        <v>5049266</v>
+        <v>3359320</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>32860442</v>
+        <v>32888148</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>25265764</v>
+        <v>31844620</v>
       </c>
       <c r="D8">
-        <v>3029242</v>
+        <v>5049266</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>44463382</v>
+        <v>32860442</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>17328926</v>
+        <v>25265764</v>
       </c>
       <c r="D9">
-        <v>263443</v>
+        <v>3029242</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>32881045</v>
+        <v>44463382</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>36817146</v>
+        <v>17328926</v>
       </c>
       <c r="D10">
-        <v>1129083</v>
+        <v>263443</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>32934708</v>
+        <v>32881045</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>30760089</v>
+        <v>36817146</v>
       </c>
       <c r="D11">
-        <v>234057</v>
+        <v>1129083</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>34023817</v>
+        <v>32934708</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>30533047</v>
+        <v>30760089</v>
       </c>
       <c r="D12">
-        <v>184805</v>
+        <v>234057</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>32997413</v>
+        <v>34023817</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>30358315</v>
+        <v>30533047</v>
       </c>
       <c r="D13">
-        <v>4275363</v>
+        <v>184805</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>34174033</v>
+        <v>32997413</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>31017177</v>
+        <v>30358315</v>
       </c>
       <c r="D14">
-        <v>1699633</v>
+        <v>4275363</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>32910924</v>
+        <v>34174033</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>30571649</v>
+        <v>31017177</v>
       </c>
       <c r="D15">
-        <v>1510813</v>
+        <v>1699633</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>32847935</v>
+        <v>32910924</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>30430976</v>
+        <v>30571649</v>
       </c>
       <c r="D16">
-        <v>1475264</v>
+        <v>1510813</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>32842266</v>
+        <v>32847935</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="C17">
-        <v>30081136</v>
+        <v>30430976</v>
       </c>
       <c r="D17">
-        <v>191348</v>
+        <v>1475264</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>32951689</v>
+        <v>32842266</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>30077263</v>
+        <v>30081136</v>
       </c>
       <c r="D18">
-        <v>1729885</v>
+        <v>191348</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>35454450</v>
+        <v>32951689</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>29841791</v>
+        <v>30077263</v>
       </c>
       <c r="D19">
-        <v>173785</v>
+        <v>1729885</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>34012835</v>
+        <v>35454450</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>29479506</v>
+        <v>29841791</v>
       </c>
       <c r="D20">
-        <v>430102</v>
+        <v>173785</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>32819484</v>
+        <v>34012835</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>28832938</v>
+        <v>29479506</v>
       </c>
       <c r="D21">
-        <v>205630</v>
+        <v>430102</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>33691098</v>
+        <v>32819484</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>30066145</v>
+        <v>28832938</v>
       </c>
       <c r="D22">
-        <v>951542</v>
+        <v>205630</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>34068695</v>
+        <v>33691098</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>29804635</v>
+        <v>30066145</v>
       </c>
       <c r="D23">
-        <v>384180</v>
+        <v>951542</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>32881241</v>
+        <v>34068695</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>29398849</v>
+        <v>29804635</v>
       </c>
       <c r="D24">
-        <v>1587054</v>
+        <v>384180</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>32838380</v>
+        <v>32881241</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>28725436</v>
+        <v>29398849</v>
       </c>
       <c r="D25">
-        <v>1131909</v>
+        <v>1587054</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>32820259</v>
+        <v>32838380</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>28352832</v>
+        <v>28725436</v>
       </c>
       <c r="D26">
-        <v>671831</v>
+        <v>1131909</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>32900080</v>
+        <v>32820259</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>28176160</v>
+        <v>28352832</v>
       </c>
       <c r="D27">
-        <v>2319706</v>
+        <v>671831</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>33898594</v>
+        <v>32900080</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>27063311</v>
+        <v>28176160</v>
       </c>
       <c r="D28">
-        <v>705707</v>
+        <v>2319706</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>32904134</v>
+        <v>33898594</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>26742827</v>
+        <v>27063311</v>
       </c>
       <c r="D29">
-        <v>2861365</v>
+        <v>705707</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>33334611</v>
+        <v>32904134</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>28265179</v>
+        <v>26742827</v>
       </c>
       <c r="D30">
-        <v>667261</v>
+        <v>2861365</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>32878345</v>
+        <v>33334611</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>27296743</v>
+        <v>28265179</v>
       </c>
       <c r="D31">
-        <v>500775</v>
+        <v>667261</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>34352176</v>
+        <v>32878345</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>27064958</v>
+        <v>27296743</v>
       </c>
       <c r="D32">
-        <v>2088113</v>
+        <v>500775</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>34014496</v>
+        <v>34352176</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>26425927</v>
+        <v>27064958</v>
       </c>
       <c r="D33">
-        <v>636458</v>
+        <v>2088113</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33984315</v>
+        <v>34014496</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>26203662</v>
+        <v>26425927</v>
       </c>
       <c r="D34">
-        <v>671874</v>
+        <v>636458</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34011747</v>
+        <v>33984315</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35">
-        <v>26005654</v>
+        <v>26203662</v>
       </c>
       <c r="D35">
-        <v>218883</v>
+        <v>671874</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>32889863</v>
+        <v>34011747</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>25701342</v>
+        <v>26005654</v>
       </c>
       <c r="D36">
-        <v>193302</v>
+        <v>218883</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>32850372</v>
+        <v>32889863</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37">
-        <v>25484227</v>
+        <v>25701342</v>
       </c>
       <c r="D37">
-        <v>145737</v>
+        <v>193302</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>32947520</v>
+        <v>32850372</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38">
-        <v>26159782</v>
+        <v>25484227</v>
       </c>
       <c r="D38">
-        <v>300867</v>
+        <v>145737</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>32878596</v>
+        <v>32947520</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>25753224</v>
+        <v>26159782</v>
       </c>
       <c r="D39">
-        <v>347409</v>
+        <v>300867</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>32873041</v>
+        <v>32878596</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40">
-        <v>25620480</v>
+        <v>25753224</v>
       </c>
       <c r="D40">
-        <v>787935</v>
+        <v>347409</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>32858701</v>
+        <v>32873041</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>25456221</v>
+        <v>25620480</v>
       </c>
       <c r="D41">
-        <v>507928</v>
+        <v>787935</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>32852288</v>
+        <v>32858701</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42">
-        <v>25075987</v>
+        <v>25456221</v>
       </c>
       <c r="D42">
-        <v>559970</v>
+        <v>507928</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>32870013</v>
+        <v>32852288</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43">
-        <v>24544638</v>
+        <v>25075987</v>
       </c>
       <c r="D43">
-        <v>1018324</v>
+        <v>559970</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42322165</v>
+        <v>32870013</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44">
-        <v>24143604</v>
+        <v>24544638</v>
       </c>
       <c r="D44">
-        <v>204792</v>
+        <v>1018324</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>34027799</v>
+        <v>42322165</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45">
-        <v>23774653</v>
+        <v>24143604</v>
       </c>
       <c r="D45">
-        <v>350940</v>
+        <v>204792</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>33963794</v>
+        <v>34027799</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>24707983</v>
+        <v>23774653</v>
       </c>
       <c r="D46">
-        <v>1497071</v>
+        <v>350940</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>33995797</v>
+        <v>33963794</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47">
-        <v>24512582</v>
+        <v>24707983</v>
       </c>
       <c r="D47">
-        <v>640561</v>
+        <v>1497071</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>32921831</v>
+        <v>33995797</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48">
-        <v>23776857</v>
+        <v>24512582</v>
       </c>
       <c r="D48">
-        <v>471970</v>
+        <v>640561</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>34344247</v>
+        <v>32921831</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49">
-        <v>23251468</v>
+        <v>23776857</v>
       </c>
       <c r="D49">
-        <v>286354</v>
+        <v>471970</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>32818701</v>
+        <v>34344247</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50">
-        <v>23032941</v>
+        <v>23251468</v>
       </c>
       <c r="D50">
-        <v>825420</v>
+        <v>286354</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>32909658</v>
+        <v>32818701</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51">
-        <v>22413853</v>
+        <v>23032941</v>
       </c>
       <c r="D51">
-        <v>365900</v>
+        <v>825420</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>34015869</v>
+        <v>32909658</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52">
-        <v>22210447</v>
+        <v>22413853</v>
       </c>
       <c r="D52">
-        <v>74538</v>
+        <v>365900</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>32880341</v>
+        <v>34015869</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53">
-        <v>21180282</v>
+        <v>22210447</v>
       </c>
       <c r="D53">
-        <v>40516</v>
+        <v>74538</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>32916643</v>
+        <v>32880341</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54">
-        <v>22666052</v>
+        <v>21180282</v>
       </c>
       <c r="D54">
-        <v>85658</v>
+        <v>40516</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>33264554</v>
+        <v>32916643</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55">
-        <v>22280668</v>
+        <v>22666052</v>
       </c>
       <c r="D55">
-        <v>304943</v>
+        <v>85658</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>32886302</v>
+        <v>33264554</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56">
-        <v>22101654</v>
+        <v>22280668</v>
       </c>
       <c r="D56">
-        <v>47506</v>
+        <v>304943</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>32866794</v>
+        <v>32886302</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57">
-        <v>20957560</v>
+        <v>22101654</v>
       </c>
       <c r="D57">
-        <v>167468</v>
+        <v>47506</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>32850382</v>
+        <v>32866794</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58">
-        <v>20665033</v>
+        <v>20957560</v>
       </c>
       <c r="D58">
-        <v>59814</v>
+        <v>167468</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>32937381</v>
+        <v>32850382</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59">
-        <v>19445076</v>
+        <v>20665033</v>
       </c>
       <c r="D59">
-        <v>316296</v>
+        <v>59814</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>35508783</v>
+        <v>32937381</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60">
-        <v>18562625</v>
+        <v>19445076</v>
       </c>
       <c r="D60">
-        <v>324772</v>
+        <v>316296</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>32889186</v>
+        <v>35508783</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61">
-        <v>18204956</v>
+        <v>18562625</v>
       </c>
       <c r="D61">
-        <v>348226</v>
+        <v>324772</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>32865578</v>
+        <v>32889186</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62">
-        <v>19504661</v>
+        <v>18204956</v>
       </c>
       <c r="D62">
-        <v>524856</v>
+        <v>348226</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>32871044</v>
+        <v>32865578</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63">
-        <v>19426599</v>
+        <v>19504661</v>
       </c>
       <c r="D63">
-        <v>217907</v>
+        <v>524856</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>32908249</v>
+        <v>32871044</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64">
-        <v>18379629</v>
+        <v>19426599</v>
       </c>
       <c r="D64">
-        <v>22740</v>
+        <v>217907</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>32911721</v>
+        <v>32908249</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65">
-        <v>17660710</v>
+        <v>18379629</v>
       </c>
       <c r="D65">
-        <v>137037</v>
+        <v>22740</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>37268288</v>
+        <v>32911721</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66">
-        <v>17527156</v>
+        <v>17660710</v>
       </c>
       <c r="D66">
-        <v>36714</v>
+        <v>137037</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>32931677</v>
+        <v>37268288</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67">
-        <v>17180536</v>
+        <v>17527156</v>
       </c>
       <c r="D67">
-        <v>2514246</v>
+        <v>36714</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>32937876</v>
+        <v>32931677</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68">
-        <v>16779951</v>
+        <v>17180536</v>
       </c>
       <c r="D68">
-        <v>62694</v>
+        <v>2514246</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>32899091</v>
+        <v>32937876</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69">
-        <v>16524016</v>
+        <v>16779951</v>
       </c>
       <c r="D69">
-        <v>44971</v>
+        <v>62694</v>
       </c>
       <c r="E69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>32824512</v>
+        <v>32899091</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70">
-        <v>17282900</v>
+        <v>16524016</v>
       </c>
       <c r="D70">
-        <v>428226</v>
+        <v>44971</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>39715543</v>
+        <v>32824512</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71">
-        <v>17044066</v>
+        <v>17282900</v>
       </c>
       <c r="D71">
-        <v>54549</v>
+        <v>428226</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>32939826</v>
+        <v>39715543</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72">
-        <v>16626810</v>
+        <v>17044066</v>
       </c>
       <c r="D72">
-        <v>347411</v>
+        <v>54549</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>32921203</v>
+        <v>32939826</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73">
-        <v>16234079</v>
+        <v>16626810</v>
       </c>
       <c r="D73">
-        <v>2901547</v>
+        <v>347411</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>34001747</v>
+        <v>32921203</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74">
-        <v>16105733</v>
+        <v>16234079</v>
       </c>
       <c r="D74">
-        <v>554374</v>
+        <v>2901547</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>34035160</v>
+        <v>34001747</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75">
-        <v>15341303</v>
+        <v>16105733</v>
       </c>
       <c r="D75">
-        <v>248076</v>
+        <v>554374</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>36892658</v>
+        <v>34035160</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76">
-        <v>13722648</v>
+        <v>15341303</v>
       </c>
       <c r="D76">
-        <v>850386</v>
+        <v>248076</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>32905501</v>
+        <v>36892658</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77">
-        <v>13442270</v>
+        <v>13722648</v>
       </c>
       <c r="D77">
-        <v>696652</v>
+        <v>850386</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>35650857</v>
+        <v>32905501</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C78">
-        <v>15806649</v>
+        <v>13442270</v>
       </c>
       <c r="D78">
-        <v>389516</v>
+        <v>696652</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>32895911</v>
+        <v>35650857</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79">
-        <v>14088377</v>
+        <v>15806649</v>
       </c>
       <c r="D79">
-        <v>44724</v>
+        <v>389516</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>37796819</v>
+        <v>32895911</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C80">
-        <v>13675207</v>
+        <v>14088377</v>
       </c>
       <c r="D80">
-        <v>1333750</v>
+        <v>44724</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>34568871</v>
+        <v>37796819</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81">
-        <v>11230427</v>
+        <v>13675207</v>
       </c>
       <c r="D81">
-        <v>14237</v>
+        <v>1333750</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>32916321</v>
+        <v>34568871</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82">
-        <v>10133174</v>
+        <v>11230427</v>
       </c>
       <c r="D82">
-        <v>392444</v>
+        <v>14237</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>52207379</v>
+        <v>32916321</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83">
-        <v>9685524</v>
+        <v>10133174</v>
       </c>
       <c r="D83">
-        <v>195512</v>
+        <v>392444</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>53114051</v>
+        <v>52207379</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84">
-        <v>7528680</v>
+        <v>9685524</v>
       </c>
       <c r="D84">
-        <v>23564</v>
+        <v>195512</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>60143585</v>
+        <v>53114051</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85">
-        <v>4345938</v>
+        <v>7528680</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>23564</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>32875812</v>
+        <v>60143585</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86">
-        <v>10018520</v>
+        <v>4345938</v>
       </c>
       <c r="D86">
-        <v>1029331</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>63002044</v>
+        <v>32875812</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C87">
-        <v>8449607</v>
+        <v>10018520</v>
       </c>
       <c r="D87">
-        <v>467</v>
+        <v>1029331</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>32904825</v>
+        <v>63002044</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88">
-        <v>7127496</v>
+        <v>8449607</v>
       </c>
       <c r="D88">
-        <v>25515</v>
+        <v>467</v>
       </c>
       <c r="E88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>32915466</v>
+        <v>32904825</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C89">
-        <v>4162670</v>
+        <v>7127496</v>
       </c>
       <c r="D89">
-        <v>252964</v>
+        <v>25515</v>
       </c>
       <c r="E89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>63270437</v>
+        <v>32915466</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90">
-        <v>3420092</v>
+        <v>4162670</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>252964</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>64094946</v>
+        <v>63270437</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C91">
-        <v>1524638</v>
+        <v>3420092</v>
       </c>
       <c r="D91">
-        <v>4832</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>49497280</v>
+        <v>64094946</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92">
-        <v>2844562</v>
+        <v>1524638</v>
       </c>
       <c r="D92">
-        <v>20303</v>
+        <v>4832</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>69900353</v>
+        <v>49497280</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C93">
-        <v>192990</v>
+        <v>2844562</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>20303</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>69419248</v>
+        <v>69900353</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C94">
-        <v>181881</v>
+        <v>192990</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>34000149</v>
+        <v>69419248</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C95">
-        <v>69558876</v>
+        <v>181881</v>
       </c>
       <c r="D95">
-        <v>11230236</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>33244924</v>
+        <v>34000149</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C96">
-        <v>41464667</v>
+        <v>69558876</v>
       </c>
       <c r="D96">
-        <v>5716378</v>
+        <v>11230236</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>42193164</v>
+        <v>33244924</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C97">
-        <v>21082881</v>
+        <v>41464667</v>
       </c>
       <c r="D97">
-        <v>207800</v>
+        <v>5716378</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>38066976</v>
+        <v>42193164</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C98">
-        <v>12979191</v>
+        <v>21082881</v>
       </c>
       <c r="D98">
-        <v>49660</v>
+        <v>207800</v>
       </c>
       <c r="E98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>33003834</v>
+        <v>38066976</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C99">
-        <v>52324011</v>
+        <v>12979191</v>
       </c>
       <c r="D99">
-        <v>12036964</v>
+        <v>49660</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>33154600</v>
+        <v>33003834</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100">
-        <v>38012393</v>
+        <v>52324011</v>
       </c>
       <c r="D100">
-        <v>11307258</v>
+        <v>12036964</v>
       </c>
       <c r="E100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>42395617</v>
+        <v>33154600</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101">
-        <v>18435859</v>
+        <v>38012393</v>
       </c>
       <c r="D101">
-        <v>898314</v>
+        <v>11307258</v>
       </c>
       <c r="E101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>36466625</v>
+        <v>42395617</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C102">
-        <v>3274037</v>
+        <v>18435859</v>
       </c>
       <c r="D102">
-        <v>28647</v>
+        <v>898314</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>42547043</v>
+        <v>36466625</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C103">
-        <v>1957720</v>
+        <v>3274037</v>
       </c>
       <c r="D103">
-        <v>30845</v>
+        <v>28647</v>
       </c>
       <c r="E103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>55222825</v>
+        <v>42547043</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C104">
-        <v>849942</v>
+        <v>1957720</v>
       </c>
       <c r="D104">
-        <v>332</v>
+        <v>30845</v>
       </c>
       <c r="E104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>42546537</v>
+        <v>55222825</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C105">
-        <v>1765499</v>
+        <v>849942</v>
       </c>
       <c r="D105">
-        <v>41443</v>
+        <v>332</v>
       </c>
       <c r="E105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>55223781</v>
+        <v>42546537</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C106">
-        <v>819326</v>
+        <v>1765499</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>41443</v>
       </c>
       <c r="E106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>68575684</v>
+        <v>55223781</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C107">
-        <v>416766</v>
+        <v>819326</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>68575684</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108">
+        <v>416766</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
         <v>214</v>
       </c>
     </row>
